--- a/src/test/resources/ConnectionsNSI.xlsx
+++ b/src/test/resources/ConnectionsNSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalst/IdeaProjects/SaveATrainPlaywrith/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB2E89-8020-064D-9AFD-25C4AA310E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC656D65-61F7-A54A-B63B-E2D9D6D28709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{800225BC-0EDC-F14A-9F21-CBE6997CEC23}"/>
   </bookViews>
@@ -34,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>SAT_DE_BE_EODMS</t>
-  </si>
-  <si>
-    <t>SAT_IT_MI_PFLRJ</t>
-  </si>
-  <si>
-    <t>SAT_DE_HA_NJFMU</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>SAT_NL_AM_WGRFL</t>
   </si>
@@ -55,9 +46,6 @@
   </si>
   <si>
     <t>SAT_UK_LO_DXLIF</t>
-  </si>
-  <si>
-    <t>SAT_IT_RO_JXWUR</t>
   </si>
   <si>
     <t>originUID</t>
@@ -422,7 +410,7 @@
   <dimension ref="A1:C7572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,21 +422,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>45379.292361111111</v>
@@ -456,36 +444,20 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>45379.292361111111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45379.292361111111</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45379.292361111111</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>

--- a/src/test/resources/ConnectionsNSI.xlsx
+++ b/src/test/resources/ConnectionsNSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalst/IdeaProjects/SaveATrainPlaywrith/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC656D65-61F7-A54A-B63B-E2D9D6D28709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E187B46A-4D3D-F342-92FC-E94D7AC4EE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{800225BC-0EDC-F14A-9F21-CBE6997CEC23}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C7572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>45379.292361111111</v>
+        <v>45412.292361111111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>45379.292361111111</v>
+        <v>45412.292361111111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/src/test/resources/ConnectionsNSI.xlsx
+++ b/src/test/resources/ConnectionsNSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalst/IdeaProjects/SaveATrainPlaywrith/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E187B46A-4D3D-F342-92FC-E94D7AC4EE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C51C2-205E-1B48-B9A0-08414807F3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{800225BC-0EDC-F14A-9F21-CBE6997CEC23}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C7572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>45412.292361111111</v>
+        <v>45442.292361111111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>45412.292361111111</v>
+        <v>45442.292361111111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/src/test/resources/ConnectionsNSI.xlsx
+++ b/src/test/resources/ConnectionsNSI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalst/IdeaProjects/SaveATrainPlaywrith/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C51C2-205E-1B48-B9A0-08414807F3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E61DA32-8FF6-114D-9ABD-7D0BC28262C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{800225BC-0EDC-F14A-9F21-CBE6997CEC23}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C7572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>45442.292361111111</v>
+        <v>45471.292361111111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>45442.292361111111</v>
+        <v>45471.292361111111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/src/test/resources/ConnectionsNSI.xlsx
+++ b/src/test/resources/ConnectionsNSI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalst/IdeaProjects/SaveATrainPlaywrith/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E61DA32-8FF6-114D-9ABD-7D0BC28262C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843B0A64-6DA4-3445-A04C-65D663931B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{800225BC-0EDC-F14A-9F21-CBE6997CEC23}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C7572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>45471.292361111111</v>
+        <v>45502.292361111111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>45471.292361111111</v>
+        <v>45502.292361111111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
